--- a/Code/Results/Cases/Case_8_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9983511454442654</v>
+        <v>0.9978299823406486</v>
       </c>
       <c r="D2">
-        <v>1.020185160271142</v>
+        <v>1.019587689937434</v>
       </c>
       <c r="E2">
-        <v>1.005028119132283</v>
+        <v>1.004586445217348</v>
       </c>
       <c r="F2">
-        <v>1.025145765155968</v>
+        <v>1.024900107021773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047770003795929</v>
+        <v>1.047467916394803</v>
       </c>
       <c r="J2">
-        <v>1.020581285561607</v>
+        <v>1.020075792553088</v>
       </c>
       <c r="K2">
-        <v>1.031370267737107</v>
+        <v>1.030780718663015</v>
       </c>
       <c r="L2">
-        <v>1.016417845928331</v>
+        <v>1.015982251254223</v>
       </c>
       <c r="M2">
-        <v>1.036265551769887</v>
+        <v>1.036023109794334</v>
       </c>
       <c r="N2">
-        <v>1.022030628049413</v>
+        <v>1.020853538664932</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037274134766408</v>
+        <v>1.037082257308374</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033251695104149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032843664092745</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02031976003765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002254518826372</v>
+        <v>1.001372312590809</v>
       </c>
       <c r="D3">
-        <v>1.022745092858383</v>
+        <v>1.021817487771763</v>
       </c>
       <c r="E3">
-        <v>1.00809940424182</v>
+        <v>1.007343986584534</v>
       </c>
       <c r="F3">
-        <v>1.027951359785188</v>
+        <v>1.027548734311892</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048634456475125</v>
+        <v>1.04816492294861</v>
       </c>
       <c r="J3">
-        <v>1.022683911503234</v>
+        <v>1.021825636762794</v>
       </c>
       <c r="K3">
-        <v>1.033094987917136</v>
+        <v>1.032178617571057</v>
       </c>
       <c r="L3">
-        <v>1.018629690075104</v>
+        <v>1.017883754267911</v>
       </c>
       <c r="M3">
-        <v>1.038238665509766</v>
+        <v>1.037840852303673</v>
       </c>
       <c r="N3">
-        <v>1.024136239961053</v>
+        <v>1.021834680515546</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038835727319745</v>
+        <v>1.03852088404136</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034468556520404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033829152083268</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020591481849115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004734000565818</v>
+        <v>1.003624827746053</v>
       </c>
       <c r="D4">
-        <v>1.024372972473989</v>
+        <v>1.023237013035178</v>
       </c>
       <c r="E4">
-        <v>1.010056307945841</v>
+        <v>1.00910332732905</v>
       </c>
       <c r="F4">
-        <v>1.029739670151095</v>
+        <v>1.029238353364995</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049170307085675</v>
+        <v>1.04859491348774</v>
       </c>
       <c r="J4">
-        <v>1.024017380466624</v>
+        <v>1.022936262374431</v>
       </c>
       <c r="K4">
-        <v>1.034185874082176</v>
+        <v>1.033062849224028</v>
       </c>
       <c r="L4">
-        <v>1.020034858616957</v>
+        <v>1.019093110908775</v>
       </c>
       <c r="M4">
-        <v>1.039491939225671</v>
+        <v>1.038996253301381</v>
       </c>
       <c r="N4">
-        <v>1.025471602603322</v>
+        <v>1.022457406896608</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039827611047678</v>
+        <v>1.039435308399907</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035240819150198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034455372345046</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020760827780981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005768607373016</v>
+        <v>1.004565129006793</v>
       </c>
       <c r="D5">
-        <v>1.025054485475</v>
+        <v>1.023831873258027</v>
       </c>
       <c r="E5">
-        <v>1.010874660266456</v>
+        <v>1.00983950993373</v>
       </c>
       <c r="F5">
-        <v>1.030486422044496</v>
+        <v>1.029944107003764</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049391909021226</v>
+        <v>1.048772444882946</v>
       </c>
       <c r="J5">
-        <v>1.024574547666381</v>
+        <v>1.023400600752072</v>
       </c>
       <c r="K5">
-        <v>1.034642381402358</v>
+        <v>1.033433322405662</v>
       </c>
       <c r="L5">
-        <v>1.020622231876295</v>
+        <v>1.019598954902348</v>
       </c>
       <c r="M5">
-        <v>1.040014579931388</v>
+        <v>1.03947819426292</v>
       </c>
       <c r="N5">
-        <v>1.026029561044411</v>
+        <v>1.022717759906836</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040241246391623</v>
+        <v>1.039816732820992</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035570826065273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034725261125059</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020831598107711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005945312236369</v>
+        <v>1.004725590778957</v>
       </c>
       <c r="D6">
-        <v>1.025173179382491</v>
+        <v>1.023935756068537</v>
       </c>
       <c r="E6">
-        <v>1.011014996297215</v>
+        <v>1.009965676094711</v>
       </c>
       <c r="F6">
-        <v>1.030612976559629</v>
+        <v>1.030063614702241</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04943108032417</v>
+        <v>1.048804080242642</v>
       </c>
       <c r="J6">
-        <v>1.024671254765032</v>
+        <v>1.023481309585002</v>
       </c>
       <c r="K6">
-        <v>1.0347232900638</v>
+        <v>1.033499521748275</v>
       </c>
       <c r="L6">
-        <v>1.020723805006982</v>
+        <v>1.01968646503831</v>
       </c>
       <c r="M6">
-        <v>1.040103536254191</v>
+        <v>1.039560153371454</v>
       </c>
       <c r="N6">
-        <v>1.026126405478234</v>
+        <v>1.022763013029556</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040311649378616</v>
+        <v>1.039881598018835</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035636832435772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034781741940586</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020844736063843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004757547476011</v>
+        <v>1.003666921480408</v>
       </c>
       <c r="D7">
-        <v>1.024394539462889</v>
+        <v>1.023270880514865</v>
       </c>
       <c r="E7">
-        <v>1.010076238942046</v>
+        <v>1.009140245865748</v>
       </c>
       <c r="F7">
-        <v>1.029753782319725</v>
+        <v>1.029260445757281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049179397800394</v>
+        <v>1.048610416161662</v>
       </c>
       <c r="J7">
-        <v>1.02403428625917</v>
+        <v>1.022971233356068</v>
       </c>
       <c r="K7">
-        <v>1.03420429012685</v>
+        <v>1.033093420572729</v>
       </c>
       <c r="L7">
-        <v>1.020051593821383</v>
+        <v>1.019126628951112</v>
       </c>
       <c r="M7">
-        <v>1.039503007471646</v>
+        <v>1.039015210048215</v>
       </c>
       <c r="N7">
-        <v>1.025488532404032</v>
+        <v>1.022529685489017</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039836370830391</v>
+        <v>1.03945031141606</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035274075194934</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034499235909202</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020769803513203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9996920665598286</v>
+        <v>0.9991117050175399</v>
       </c>
       <c r="D8">
-        <v>1.021071524431376</v>
+        <v>1.020405072150236</v>
       </c>
       <c r="E8">
-        <v>1.006083636437505</v>
+        <v>1.005593500167517</v>
       </c>
       <c r="F8">
-        <v>1.026104664570025</v>
+        <v>1.025833028860818</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048074512504751</v>
+        <v>1.04773800885565</v>
       </c>
       <c r="J8">
-        <v>1.021309205083632</v>
+        <v>1.020745706239456</v>
       </c>
       <c r="K8">
-        <v>1.031973437150475</v>
+        <v>1.031315559342441</v>
       </c>
       <c r="L8">
-        <v>1.017181826803042</v>
+        <v>1.016698233291856</v>
       </c>
       <c r="M8">
-        <v>1.036942270869485</v>
+        <v>1.036674085623663</v>
       </c>
       <c r="N8">
-        <v>1.022759581300654</v>
+        <v>1.02138885508171</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03780971477092</v>
+        <v>1.037597463302487</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03370125661296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03324718738853</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020431198407131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9903803647645268</v>
+        <v>0.9906892110163338</v>
       </c>
       <c r="D9">
-        <v>1.014969881525662</v>
+        <v>1.015107952281561</v>
       </c>
       <c r="E9">
-        <v>0.9987911158469106</v>
+        <v>0.9990720900051068</v>
       </c>
       <c r="F9">
-        <v>1.019452616962654</v>
+        <v>1.019567542166197</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045934328535604</v>
+        <v>1.046004899562457</v>
       </c>
       <c r="J9">
-        <v>1.016277450953686</v>
+        <v>1.016575096433637</v>
       </c>
       <c r="K9">
-        <v>1.027824663658867</v>
+        <v>1.027960578388393</v>
       </c>
       <c r="L9">
-        <v>1.011903836849371</v>
+        <v>1.012180239862637</v>
       </c>
       <c r="M9">
-        <v>1.032237780467394</v>
+        <v>1.032350931115236</v>
       </c>
       <c r="N9">
-        <v>1.017720681502694</v>
+        <v>1.0190697641257</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034086402323878</v>
+        <v>1.03417595427565</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030764553943401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030871484140513</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019764285795193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9839628485743672</v>
+        <v>0.9849945550030265</v>
       </c>
       <c r="D10">
-        <v>1.010784457280117</v>
+        <v>1.011549729044196</v>
       </c>
       <c r="E10">
-        <v>0.9938093332931615</v>
+        <v>0.9947188102980019</v>
       </c>
       <c r="F10">
-        <v>1.015079000152971</v>
+        <v>1.015508111867015</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044418203519449</v>
+        <v>1.044806031335967</v>
       </c>
       <c r="J10">
-        <v>1.012827520887605</v>
+        <v>1.013816435707397</v>
       </c>
       <c r="K10">
-        <v>1.024961687328905</v>
+        <v>1.025713534500838</v>
       </c>
       <c r="L10">
-        <v>1.008291269031139</v>
+        <v>1.0091840774711</v>
       </c>
       <c r="M10">
-        <v>1.029181233255882</v>
+        <v>1.029602896367772</v>
       </c>
       <c r="N10">
-        <v>1.014265852140207</v>
+        <v>1.017758294590019</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031719187945513</v>
+        <v>1.032052888937512</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.0287571703996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029301294794999</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019316569985323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9815838448197259</v>
+        <v>0.9829960208164145</v>
       </c>
       <c r="D11">
-        <v>1.009264160230982</v>
+        <v>1.010337492489942</v>
       </c>
       <c r="E11">
-        <v>0.9920371016042822</v>
+        <v>0.9932787106743665</v>
       </c>
       <c r="F11">
-        <v>1.014837952183576</v>
+        <v>1.015432825206027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044025512287339</v>
+        <v>1.04457057067961</v>
       </c>
       <c r="J11">
-        <v>1.011743346160499</v>
+        <v>1.013093702735729</v>
       </c>
       <c r="K11">
-        <v>1.024013457538965</v>
+        <v>1.025067056944408</v>
       </c>
       <c r="L11">
-        <v>1.007110765286392</v>
+        <v>1.008328503640336</v>
       </c>
       <c r="M11">
-        <v>1.02948536832989</v>
+        <v>1.030069453812873</v>
       </c>
       <c r="N11">
-        <v>1.013180137760631</v>
+        <v>1.017801970618871</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032399168614557</v>
+        <v>1.032861173430622</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028119863217211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028880549070603</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019224728971707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.980819276430815</v>
+        <v>0.982351148135704</v>
       </c>
       <c r="D12">
-        <v>1.008771454614287</v>
+        <v>1.009941896591476</v>
       </c>
       <c r="E12">
-        <v>0.991493378345767</v>
+        <v>0.9928367359465494</v>
       </c>
       <c r="F12">
-        <v>1.015305983064402</v>
+        <v>1.015953367210197</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043956142284822</v>
+        <v>1.044550827854513</v>
       </c>
       <c r="J12">
-        <v>1.011458181916999</v>
+        <v>1.012921686741737</v>
       </c>
       <c r="K12">
-        <v>1.023732514940762</v>
+        <v>1.024881072438891</v>
       </c>
       <c r="L12">
-        <v>1.006785386821148</v>
+        <v>1.008102471700326</v>
       </c>
       <c r="M12">
-        <v>1.030145704340385</v>
+        <v>1.030781177976534</v>
       </c>
       <c r="N12">
-        <v>1.012894568551196</v>
+        <v>1.017900484285641</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033249759107023</v>
+        <v>1.033752239282256</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027921224218354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028749052759977</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019206812296654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.981260756914365</v>
+        <v>0.9827034151780909</v>
       </c>
       <c r="D13">
-        <v>1.009053394118677</v>
+        <v>1.010154420761623</v>
       </c>
       <c r="E13">
-        <v>0.9918694429105137</v>
+        <v>0.9931303195218459</v>
       </c>
       <c r="F13">
-        <v>1.016377187617418</v>
+        <v>1.016986808511856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044145502475927</v>
+        <v>1.044705073359324</v>
       </c>
       <c r="J13">
-        <v>1.011784318568276</v>
+        <v>1.013162902422157</v>
       </c>
       <c r="K13">
-        <v>1.023965718273841</v>
+        <v>1.025046240452755</v>
       </c>
       <c r="L13">
-        <v>1.007109523327478</v>
+        <v>1.008345845163541</v>
       </c>
       <c r="M13">
-        <v>1.031154207766297</v>
+        <v>1.031752680547951</v>
       </c>
       <c r="N13">
-        <v>1.013221168353927</v>
+        <v>1.017992728060879</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034325123279532</v>
+        <v>1.03479822635645</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028083593336626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028863073909503</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019250135588916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9821113989915674</v>
+        <v>0.9834025851551705</v>
       </c>
       <c r="D14">
-        <v>1.009598999001749</v>
+        <v>1.010580330808591</v>
       </c>
       <c r="E14">
-        <v>0.9925451469434451</v>
+        <v>0.9936705027088507</v>
       </c>
       <c r="F14">
-        <v>1.017386243465669</v>
+        <v>1.017931227495188</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044391787432822</v>
+        <v>1.044890674785394</v>
       </c>
       <c r="J14">
-        <v>1.012284524515523</v>
+        <v>1.013519183412167</v>
       </c>
       <c r="K14">
-        <v>1.024358869035235</v>
+        <v>1.025322149229448</v>
       </c>
       <c r="L14">
-        <v>1.007626189130816</v>
+        <v>1.008729906456155</v>
       </c>
       <c r="M14">
-        <v>1.032004112808865</v>
+        <v>1.03253926477089</v>
       </c>
       <c r="N14">
-        <v>1.013722084650993</v>
+        <v>1.018055821806342</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035170919489104</v>
+        <v>1.035593908975391</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028363006715871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029059725263419</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019309172391955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9825906942604485</v>
+        <v>0.9838009202306431</v>
       </c>
       <c r="D15">
-        <v>1.009910404739352</v>
+        <v>1.010827156049455</v>
       </c>
       <c r="E15">
-        <v>0.9929191299526108</v>
+        <v>0.9939730061454028</v>
       </c>
       <c r="F15">
-        <v>1.01779692547841</v>
+        <v>1.018307191911366</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044515746289006</v>
+        <v>1.044981892163797</v>
       </c>
       <c r="J15">
-        <v>1.012550498977867</v>
+        <v>1.0137082068152</v>
       </c>
       <c r="K15">
-        <v>1.024576911520931</v>
+        <v>1.025476926648448</v>
       </c>
       <c r="L15">
-        <v>1.007903150066297</v>
+        <v>1.008936919564399</v>
       </c>
       <c r="M15">
-        <v>1.032320736791051</v>
+        <v>1.032821869541498</v>
       </c>
       <c r="N15">
-        <v>1.013988436827581</v>
+        <v>1.018080887564662</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035458834740623</v>
+        <v>1.035854924644458</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028523098066505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029175651689469</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019340616150031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9852244358092447</v>
+        <v>0.9860209716969489</v>
       </c>
       <c r="D16">
-        <v>1.011632862525708</v>
+        <v>1.012213768369624</v>
       </c>
       <c r="E16">
-        <v>0.9949503542525602</v>
+        <v>0.995642955615348</v>
       </c>
       <c r="F16">
-        <v>1.019494149399505</v>
+        <v>1.019825863455659</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045142721519677</v>
+        <v>1.045438603273414</v>
       </c>
       <c r="J16">
-        <v>1.013958092801413</v>
+        <v>1.014721805926748</v>
       </c>
       <c r="K16">
-        <v>1.025759140830572</v>
+        <v>1.026329905800503</v>
       </c>
       <c r="L16">
-        <v>1.009374436297269</v>
+        <v>1.010054415459408</v>
       </c>
       <c r="M16">
-        <v>1.033484459602308</v>
+        <v>1.033810495916856</v>
       </c>
       <c r="N16">
-        <v>1.01539802959581</v>
+        <v>1.018240666639452</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036339794971736</v>
+        <v>1.036597497933636</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029362184364597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029782239904505</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019507302272892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9868045980473212</v>
+        <v>0.9873789766402387</v>
       </c>
       <c r="D17">
-        <v>1.012673085481699</v>
+        <v>1.013069111210892</v>
       </c>
       <c r="E17">
-        <v>0.9961609843612188</v>
+        <v>0.9966608549227296</v>
       </c>
       <c r="F17">
-        <v>1.020266012598515</v>
+        <v>1.020501265264114</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045493719242507</v>
+        <v>1.0456958131448</v>
       </c>
       <c r="J17">
-        <v>1.014779473539123</v>
+        <v>1.015330953541179</v>
       </c>
       <c r="K17">
-        <v>1.026462499366481</v>
+        <v>1.026851807262878</v>
       </c>
       <c r="L17">
-        <v>1.010236661927202</v>
+        <v>1.010727685856549</v>
       </c>
       <c r="M17">
-        <v>1.033927796997288</v>
+        <v>1.03415913436989</v>
       </c>
       <c r="N17">
-        <v>1.016220576788381</v>
+        <v>1.018392364503778</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036560742872494</v>
+        <v>1.036743612971421</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029862101714466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030154104753476</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01960607235856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.987600653555157</v>
+        <v>0.9880773818560615</v>
       </c>
       <c r="D18">
-        <v>1.013196479135114</v>
+        <v>1.013508049840011</v>
       </c>
       <c r="E18">
-        <v>0.9967512863932582</v>
+        <v>0.9971678205370175</v>
       </c>
       <c r="F18">
-        <v>1.020201722835423</v>
+        <v>1.020393509454934</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045619519099341</v>
+        <v>1.045778557604819</v>
       </c>
       <c r="J18">
-        <v>1.015140418265556</v>
+        <v>1.015598503405487</v>
       </c>
       <c r="K18">
-        <v>1.026791246753152</v>
+        <v>1.027097620387959</v>
       </c>
       <c r="L18">
-        <v>1.010626333486296</v>
+        <v>1.011035620823949</v>
       </c>
       <c r="M18">
-        <v>1.033680627165043</v>
+        <v>1.033869270493164</v>
       </c>
       <c r="N18">
-        <v>1.016582034097726</v>
+        <v>1.01845918982173</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036126695043667</v>
+        <v>1.036275847180471</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030082803860614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030315032875127</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01964390578369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9876613412703392</v>
+        <v>0.9881440534747785</v>
       </c>
       <c r="D19">
-        <v>1.013235370070218</v>
+        <v>1.013549107479547</v>
       </c>
       <c r="E19">
-        <v>0.9967581585783858</v>
+        <v>0.9971821447879877</v>
       </c>
       <c r="F19">
-        <v>1.01931525012182</v>
+        <v>1.019508061949814</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045528493888642</v>
+        <v>1.045688147580494</v>
       </c>
       <c r="J19">
-        <v>1.015061324913463</v>
+        <v>1.015525274141438</v>
       </c>
       <c r="K19">
-        <v>1.02676614903521</v>
+        <v>1.027074681751209</v>
       </c>
       <c r="L19">
-        <v>1.010568240743703</v>
+        <v>1.010984890341803</v>
       </c>
       <c r="M19">
-        <v>1.032745901306587</v>
+        <v>1.032935562882068</v>
       </c>
       <c r="N19">
-        <v>1.016502828424002</v>
+        <v>1.018394698728262</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035060441527025</v>
+        <v>1.035210448220241</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03007150716176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03030588610814</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01962184167643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9856517998615048</v>
+        <v>0.9864296955401306</v>
       </c>
       <c r="D20">
-        <v>1.011898964358176</v>
+        <v>1.012456529928602</v>
       </c>
       <c r="E20">
-        <v>0.9951219264496581</v>
+        <v>0.9958078452033157</v>
       </c>
       <c r="F20">
-        <v>1.016228650963187</v>
+        <v>1.016547634737646</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044831702325089</v>
+        <v>1.04511403618266</v>
       </c>
       <c r="J20">
-        <v>1.01374724915604</v>
+        <v>1.014493941573872</v>
       </c>
       <c r="K20">
-        <v>1.025735762649708</v>
+        <v>1.026283826415656</v>
       </c>
       <c r="L20">
-        <v>1.009251096675606</v>
+        <v>1.009924811319595</v>
       </c>
       <c r="M20">
-        <v>1.029992017803874</v>
+        <v>1.030305623526454</v>
       </c>
       <c r="N20">
-        <v>1.015186886528277</v>
+        <v>1.017940788523025</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032350208105061</v>
+        <v>1.032598396319923</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029346926980494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029751055114498</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019429895615263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9807336508780999</v>
+        <v>0.9823641763798046</v>
       </c>
       <c r="D21">
-        <v>1.008688009107337</v>
+        <v>1.009929828147054</v>
       </c>
       <c r="E21">
-        <v>0.9913039214591235</v>
+        <v>0.9927454331717424</v>
       </c>
       <c r="F21">
-        <v>1.012622986324895</v>
+        <v>1.013313038490284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043608940304193</v>
+        <v>1.044239384589186</v>
       </c>
       <c r="J21">
-        <v>1.011059574858278</v>
+        <v>1.012618208093664</v>
       </c>
       <c r="K21">
-        <v>1.023506632949818</v>
+        <v>1.02472548766578</v>
       </c>
       <c r="L21">
-        <v>1.006451938081246</v>
+        <v>1.007865561422108</v>
       </c>
       <c r="M21">
-        <v>1.027369094695404</v>
+        <v>1.028046505855347</v>
       </c>
       <c r="N21">
-        <v>1.01249539542473</v>
+        <v>1.017707932779183</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030233118686404</v>
+        <v>1.030769251775277</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027774083369455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028652818849458</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019130404460757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9775969012263395</v>
+        <v>0.9797522070451334</v>
       </c>
       <c r="D22">
-        <v>1.006640769993289</v>
+        <v>1.008306136504203</v>
       </c>
       <c r="E22">
-        <v>0.988879670708135</v>
+        <v>0.9907862687765248</v>
       </c>
       <c r="F22">
-        <v>1.010422932221591</v>
+        <v>1.011342504067124</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042824705409564</v>
+        <v>1.04367040891003</v>
       </c>
       <c r="J22">
-        <v>1.009352882666536</v>
+        <v>1.011407557754976</v>
       </c>
       <c r="K22">
-        <v>1.022081809933906</v>
+        <v>1.023714823710107</v>
       </c>
       <c r="L22">
-        <v>1.004674689882328</v>
+        <v>1.006542488170491</v>
       </c>
       <c r="M22">
-        <v>1.02579069849083</v>
+        <v>1.026692563479186</v>
       </c>
       <c r="N22">
-        <v>1.010786279534316</v>
+        <v>1.017506148152759</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028983904661228</v>
+        <v>1.029697681610555</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026753019672364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027923297878388</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01893304036778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9792574239475819</v>
+        <v>0.9811058669607304</v>
       </c>
       <c r="D23">
-        <v>1.007719228549284</v>
+        <v>1.009140125815861</v>
       </c>
       <c r="E23">
-        <v>0.9901607424512693</v>
+        <v>0.9917941752705369</v>
       </c>
       <c r="F23">
-        <v>1.011589284322318</v>
+        <v>1.012374366397251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043238104846776</v>
+        <v>1.043959339376116</v>
       </c>
       <c r="J23">
-        <v>1.010252902893999</v>
+        <v>1.01201760073921</v>
       </c>
       <c r="K23">
-        <v>1.02282999604392</v>
+        <v>1.024223995253132</v>
       </c>
       <c r="L23">
-        <v>1.005612272950901</v>
+        <v>1.007213336521559</v>
       </c>
       <c r="M23">
-        <v>1.026627022007008</v>
+        <v>1.027397378146901</v>
       </c>
       <c r="N23">
-        <v>1.011687577893736</v>
+        <v>1.017524967441735</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029645809134851</v>
+        <v>1.03025550346646</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027272298769233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028272643635175</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019029168384057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9856717072268133</v>
+        <v>0.9864491477836766</v>
       </c>
       <c r="D24">
-        <v>1.011901114238391</v>
+        <v>1.012457757555765</v>
       </c>
       <c r="E24">
-        <v>0.9951288155006868</v>
+        <v>0.9958146841201331</v>
       </c>
       <c r="F24">
-        <v>1.016109877071676</v>
+        <v>1.016428514721386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044813197542017</v>
+        <v>1.045094983111505</v>
       </c>
       <c r="J24">
-        <v>1.013732692023608</v>
+        <v>1.014478993308824</v>
       </c>
       <c r="K24">
-        <v>1.025722407376023</v>
+        <v>1.026269576834541</v>
       </c>
       <c r="L24">
-        <v>1.009242018045387</v>
+        <v>1.009915699422248</v>
       </c>
       <c r="M24">
-        <v>1.029859870734646</v>
+        <v>1.030173141442124</v>
       </c>
       <c r="N24">
-        <v>1.015172308723047</v>
+        <v>1.017924376730382</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032204426740314</v>
+        <v>1.03245236235431</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029309836897684</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02971066481879</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.0194220486092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9928489994322454</v>
+        <v>0.9928920681631958</v>
       </c>
       <c r="D25">
-        <v>1.016594196451707</v>
+        <v>1.016499218393521</v>
       </c>
       <c r="E25">
-        <v>1.000720724852376</v>
+        <v>1.00077026132793</v>
       </c>
       <c r="F25">
-        <v>1.021205240038784</v>
+        <v>1.021204780957699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046519145267292</v>
+        <v>1.046471736787368</v>
       </c>
       <c r="J25">
-        <v>1.017619443351633</v>
+        <v>1.017661033443586</v>
       </c>
       <c r="K25">
-        <v>1.028940256857641</v>
+        <v>1.028846692798978</v>
       </c>
       <c r="L25">
-        <v>1.013307862789356</v>
+        <v>1.013356631737794</v>
       </c>
       <c r="M25">
-        <v>1.033483054622972</v>
+        <v>1.033482602297566</v>
       </c>
       <c r="N25">
-        <v>1.019064579683774</v>
+        <v>1.019611942694845</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035071961508791</v>
+        <v>1.035071603520837</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031582170653946</v>
+        <v>1.031529647784837</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01994273071039</v>
       </c>
     </row>
   </sheetData>
